--- a/MarsQA_2/Excel_Use_Data/Excel_Test_data.xlsx
+++ b/MarsQA_2/Excel_Use_Data/Excel_Test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndustryConnect\MarsTask_2\MarsQA-2\MarsQA_2\Excel_Use_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F5273A-3523-4016-B8CE-E2CC57C74F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918A0C7D-1B8C-4124-AD8B-E64637A8D639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Password</t>
   </si>
@@ -37,13 +38,136 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>New tag</t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>Skill Trade</t>
+  </si>
+  <si>
+    <t>Skill Exchange</t>
+  </si>
+  <si>
+    <t>Work Samples</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>Automation Testing Description</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Tag1</t>
+  </si>
+  <si>
+    <t>Tag2</t>
+  </si>
+  <si>
+    <t>Hourly basis service</t>
+  </si>
+  <si>
+    <t>OnSite</t>
+  </si>
+  <si>
+    <t>24-05-2022</t>
+  </si>
+  <si>
+    <t>31-05-2022</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tag12</t>
+  </si>
+  <si>
+    <t>C:\Users\mrudu\Desktop\Reshma\Testing</t>
+  </si>
+  <si>
+    <t>Music Composing</t>
+  </si>
+  <si>
+    <t>Music Composing description</t>
+  </si>
+  <si>
+    <t>Video &amp; Animation</t>
+  </si>
+  <si>
+    <t>Lyric &amp; Music Videos</t>
+  </si>
+  <si>
+    <t>Tag123</t>
+  </si>
+  <si>
+    <t>One-Off Service</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Hidden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +191,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +209,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,11 +231,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -383,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -433,4 +573,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080DE206-FEDC-4FFE-9BA2-48524FE927A6}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M2" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="7">
+        <v>44687</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>